--- a/bots/crawl_ch/output/clothes_2022-08-27.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-27.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-27 07:01:45</t>
+          <t>2022-08-27 20:58:02</t>
         </is>
       </c>
     </row>
